--- a/2des/bcd/aula03/exercicios/normalizados/exercicio2_academia.xlsx
+++ b/2des/bcd/aula03/exercicios/normalizados/exercicio2_academia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\bcd\aula03\exercicios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\bcd\aula03\exercicios\normalizados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBC236D-8875-499C-96F8-9136E5236EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFD8C97-00D4-416C-A352-31F25E0A3FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dados_brutos" sheetId="1" r:id="rId1"/>
@@ -292,7 +292,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +310,14 @@
     </font>
     <font>
       <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,11 +346,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,7 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1389,9 +1398,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3B52EF-E350-4F58-922B-D817236EE700}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1484,6 +1495,9 @@
       <c r="E5">
         <v>98</v>
       </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1570,7 +1584,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,7 +1858,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1985,7 +1999,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676323B8-539B-4686-B3DB-0FE1435AEE6B}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1997,7 +2013,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>80</v>

--- a/2des/bcd/aula03/exercicios/normalizados/exercicio2_academia.xlsx
+++ b/2des/bcd/aula03/exercicios/normalizados/exercicio2_academia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\bcd\aula03\exercicios\normalizados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFD8C97-00D4-416C-A352-31F25E0A3FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386AECD1-CB15-4BE6-93BD-4F2998EAA12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dados_brutos" sheetId="1" r:id="rId1"/>
@@ -292,6 +292,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -346,12 +349,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3B52EF-E350-4F58-922B-D817236EE700}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,7 +1439,7 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="5">
         <v>36668</v>
       </c>
       <c r="D2" t="s">
@@ -1452,7 +1456,7 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <v>33108</v>
       </c>
       <c r="D3" t="s">
@@ -1469,7 +1473,7 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <v>32308</v>
       </c>
       <c r="D4" t="s">
@@ -1486,7 +1490,7 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <v>37450</v>
       </c>
       <c r="D5" t="s">
@@ -1509,7 +1513,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2A81B6-A92B-415B-BC64-A3CD14F26B6E}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1584,7 +1590,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1858,7 +1864,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2000,7 +2006,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
